--- a/Análise/Sprint Backlog.xlsx
+++ b/Análise/Sprint Backlog.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Análise\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6240E62-158D-4225-87CA-889C050D97C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="1575" windowWidth="15600" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="51">
   <si>
     <t>Tarefa</t>
   </si>
@@ -124,144 +130,74 @@
     <t>UC6 MD</t>
   </si>
   <si>
-    <t>Testes Unitarios UC1</t>
-  </si>
-  <si>
-    <t>Implementação</t>
-  </si>
-  <si>
-    <t>Testes Unitarios UC2</t>
-  </si>
-  <si>
-    <t>Testes Unitarios UC3</t>
-  </si>
-  <si>
-    <t>Testes Unitarios UC4</t>
-  </si>
-  <si>
-    <t>Testes Unitarios UC5</t>
-  </si>
-  <si>
-    <t>Testes Unitarios UC6</t>
-  </si>
-  <si>
-    <t>Criar Interface Gráfica UC1</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>Criar Interface Gráfica UC2</t>
-  </si>
-  <si>
-    <t>Criar Interface Gráfica UC3</t>
-  </si>
-  <si>
-    <t>Criar Interface Gráfica UC4</t>
-  </si>
-  <si>
-    <t>Criar Interface Gráfica UC5</t>
-  </si>
-  <si>
-    <t>Criar Interface Gráfica UC6</t>
-  </si>
-  <si>
-    <t>Implementar Classes UC1</t>
-  </si>
-  <si>
-    <t>Implementar Classes UC2</t>
-  </si>
-  <si>
-    <t>Implementar Classes UC3</t>
-  </si>
-  <si>
-    <t>Implementar Classes UC4</t>
-  </si>
-  <si>
-    <t>Implementar Classes UC5</t>
-  </si>
-  <si>
-    <t>Implementar Classes UC6</t>
-  </si>
-  <si>
-    <t>Implementar Métodos UC1</t>
-  </si>
-  <si>
-    <t>Implementar Métodos UC2</t>
-  </si>
-  <si>
-    <t>Implementar Métodos UC3</t>
-  </si>
-  <si>
-    <t>Implementar Métodos UC4</t>
-  </si>
-  <si>
-    <t>Implementar Métodos UC5</t>
-  </si>
-  <si>
-    <t>Implementar Métodos UC6</t>
-  </si>
-  <si>
-    <t>Ligar UI a CTRL UC1</t>
-  </si>
-  <si>
-    <t>Ligar UI a CTRL UC2</t>
-  </si>
-  <si>
-    <t>Ligar UI a CTRL UC3</t>
-  </si>
-  <si>
-    <t>Ligar UI a CTRL UC4</t>
-  </si>
-  <si>
-    <t>Ligar UI a CTRL UC5</t>
-  </si>
-  <si>
-    <t>Ligar UI a CTRL UC6</t>
-  </si>
-  <si>
-    <t>Criar ligação com API</t>
-  </si>
-  <si>
-    <t>TDD RepositorioOrganizacao</t>
-  </si>
-  <si>
-    <t>TDD Website</t>
-  </si>
-  <si>
-    <t>TDD NIF</t>
-  </si>
-  <si>
-    <t>TDD Plataforma</t>
-  </si>
-  <si>
-    <t>TDD EnderecoPostal</t>
-  </si>
-  <si>
-    <t>TDD Email</t>
-  </si>
-  <si>
-    <t>TDD Colaborador</t>
-  </si>
-  <si>
-    <t>GRUPO</t>
-  </si>
-  <si>
-    <t>TDD Telefone</t>
-  </si>
-  <si>
-    <t>ANIBAL, PEDRO</t>
-  </si>
-  <si>
-    <t>JULIO, VITOR</t>
+    <t>Implementação UC1</t>
+  </si>
+  <si>
+    <t>Implementação UC2</t>
+  </si>
+  <si>
+    <t>Implementação UC3</t>
+  </si>
+  <si>
+    <t>Implementação UC4</t>
+  </si>
+  <si>
+    <t>Implementação UC5</t>
+  </si>
+  <si>
+    <t>Implementação UC6</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Geral</t>
+  </si>
+  <si>
+    <t>Persistencia 
+de dados</t>
+  </si>
+  <si>
+    <t>Comunicação com
+Web Service</t>
+  </si>
+  <si>
+    <t>Implementação JAVAFX</t>
+  </si>
+  <si>
+    <t>Interfaces Gráficas</t>
+  </si>
+  <si>
+    <t>Anibal, Julio, Vitor</t>
+  </si>
+  <si>
+    <t>Revisão Final JAVAFX</t>
+  </si>
+  <si>
+    <t>Revisão Final UI+Controllers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -273,11 +209,17 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,8 +232,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -340,19 +288,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -360,6 +323,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,11 +607,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:O235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -777,7 +749,9 @@
       <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1052,7 +1026,9 @@
       <c r="D22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="F22" s="4" t="s">
         <v>25</v>
       </c>
@@ -1177,475 +1153,347 @@
       </c>
     </row>
     <row r="30" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="4">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="40.5" customHeight="1">
+      <c r="B31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="4">
         <v>3</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="D31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B31" s="4" t="s">
+    <row r="32" spans="2:6" ht="40.5" customHeight="1">
+      <c r="B32" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C31" s="4">
-        <v>2</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B32" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C32" s="4">
         <v>4</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B33" s="4" t="s">
-        <v>40</v>
+      <c r="B33" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C33" s="4">
         <v>3</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="40.5" customHeight="1">
+      <c r="B35" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C34" s="4">
-        <v>2</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B35" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C35" s="4">
         <v>3</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B36" s="4" t="s">
-        <v>43</v>
+      <c r="B36" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C36" s="4">
         <v>3</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="4">
-        <v>3</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B39" s="4" t="s">
-        <v>47</v>
+      <c r="B39" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C39" s="4">
         <v>3</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>44</v>
+      <c r="D39" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B40" s="4" t="s">
-        <v>48</v>
+      <c r="B40" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C40" s="4">
         <v>3</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>44</v>
+      <c r="D40" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B41" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="4">
-        <v>3</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B42" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="4">
-        <v>3</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B43" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="4">
-        <v>2</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="4">
-        <v>4</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B45" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="4">
-        <v>3</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B46" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="4">
-        <v>2</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B47" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="4">
-        <v>3</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B48" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="4">
-        <v>3</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B49" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="4">
-        <v>2</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B50" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="4">
-        <v>4</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:6" ht="40.5" customHeight="1">
-      <c r="B51" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="4">
-        <v>3</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:6" ht="44.25" customHeight="1">
-      <c r="B52" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="4">
-        <v>2</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:6" ht="44.25" customHeight="1">
-      <c r="B53" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="4">
-        <v>3</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:6" ht="44.25" customHeight="1">
-      <c r="B54" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="4">
-        <v>3</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:6" ht="44.25" customHeight="1">
-      <c r="B55" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="4">
-        <v>2</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:6" ht="44.25" customHeight="1">
-      <c r="B56" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="4">
-        <v>4</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:6" ht="44.25" customHeight="1">
-      <c r="B57" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="4">
-        <v>3</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:6" ht="44.25" customHeight="1">
-      <c r="B58" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="4">
-        <v>2</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:6" ht="44.25" customHeight="1">
-      <c r="B59" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="4">
-        <v>3</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:6" ht="44.25" customHeight="1">
-      <c r="B60" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="4">
-        <v>5</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
     </row>
     <row r="61" spans="2:6" ht="44.25" customHeight="1">
-      <c r="B61" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="4">
-        <v>3</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
     <row r="62" spans="2:6" ht="44.25" customHeight="1">
-      <c r="B62" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="4">
-        <v>1</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
     <row r="63" spans="2:6" ht="44.25" customHeight="1">
-      <c r="B63" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" s="4">
-        <v>1</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
     </row>
     <row r="64" spans="2:6" ht="44.25" customHeight="1">
-      <c r="B64" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="4">
-        <v>3</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
     <row r="65" spans="2:6" ht="44.25" customHeight="1">
-      <c r="B65" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="4">
-        <v>1</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" spans="2:6" ht="44.25" customHeight="1">
-      <c r="B66" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C66" s="4">
-        <v>2</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
     <row r="67" spans="2:6" ht="44.25" customHeight="1">
-      <c r="B67" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="4">
-        <v>3</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
     <row r="68" spans="2:6" ht="44.25" customHeight="1">
-      <c r="B68" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="4">
-        <v>1</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="F68" s="4"/>
     </row>
     <row r="69" spans="2:6" ht="44.25" customHeight="1">
       <c r="D69" s="4"/>
@@ -1819,7 +1667,8 @@
     <row r="234" ht="44.25" customHeight="1"/>
     <row r="235" ht="44.25" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>